--- a/Data/T1_EMA_L.xlsx
+++ b/Data/T1_EMA_L.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,68 +470,63 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Dividends</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Stock Splits</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>EMA10</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>EMA22</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>EMA50</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>EMA100</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>EMA250</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>EMA</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Adj Close</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Volume</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Dividends</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Stock Splits</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>EMA10</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>EMA22</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>EMA50</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>EMA100</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>EMA250</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>EMA</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>EMA_diff</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>T1</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -539,401 +534,1108 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>149.8000030517578</v>
+        <v>151.1000061035156</v>
       </c>
       <c r="D2" t="n">
+        <v>151.8000030517578</v>
+      </c>
+      <c r="E2" t="n">
         <v>150.6000061035156</v>
       </c>
-      <c r="E2" t="n">
-        <v>148.8999938964844</v>
-      </c>
       <c r="F2" t="n">
-        <v>150.6000061035156</v>
+        <v>151.1000061035156</v>
       </c>
       <c r="G2" t="n">
-        <v>150.6000061035156</v>
+        <v>152626</v>
       </c>
       <c r="H2" t="n">
-        <v>481508</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>149.5338580740149</v>
       </c>
       <c r="K2" t="n">
-        <v>149.1859888207448</v>
+        <v>147.7748305124124</v>
       </c>
       <c r="L2" t="n">
-        <v>147.4641591333958</v>
+        <v>143.6313060251208</v>
       </c>
       <c r="M2" t="n">
-        <v>143.3592281011309</v>
+        <v>135.6517904064945</v>
       </c>
       <c r="N2" t="n">
-        <v>135.4171674342283</v>
-      </c>
-      <c r="O2" t="n">
-        <v>117.0609031517014</v>
+        <v>117.1605185744171</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
       </c>
-      <c r="Q2" t="n">
-        <v>4.589607128838831</v>
-      </c>
-      <c r="R2" t="b">
-        <v>1</v>
-      </c>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1179.HK</t>
+          <t>2688.HK</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30.3799991607666</v>
+        <v>63.79999923706055</v>
       </c>
       <c r="D3" t="n">
-        <v>30.3799991607666</v>
+        <v>64.30000305175781</v>
       </c>
       <c r="E3" t="n">
-        <v>29.70000076293945</v>
+        <v>63.54999923706055</v>
       </c>
       <c r="F3" t="n">
-        <v>29.89999961853027</v>
+        <v>63.75</v>
       </c>
       <c r="G3" t="n">
-        <v>29.89999961853027</v>
+        <v>1442700</v>
       </c>
       <c r="H3" t="n">
-        <v>1420413</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>64.42874397166487</v>
       </c>
       <c r="K3" t="n">
-        <v>29.33456015478722</v>
+        <v>64.38809525426726</v>
       </c>
       <c r="L3" t="n">
-        <v>28.70440743455283</v>
+        <v>64.0664808213283</v>
       </c>
       <c r="M3" t="n">
-        <v>27.81017093226787</v>
+        <v>62.75252688416912</v>
       </c>
       <c r="N3" t="n">
-        <v>27.38377244989571</v>
-      </c>
-      <c r="O3" t="n">
-        <v>27.27553415724648</v>
+        <v>60.31991738327785</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0.6502625682971702</v>
-      </c>
-      <c r="R3" t="b">
-        <v>1</v>
-      </c>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0945.HK</t>
+          <t>2638.HK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>244.1999969482422</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>244.1999969482422</v>
+        <v>6.019999980926514</v>
       </c>
       <c r="E4" t="n">
-        <v>243.1999969482422</v>
+        <v>5.989999771118164</v>
       </c>
       <c r="F4" t="n">
-        <v>243.1999969482422</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="G4" t="n">
-        <v>243.1999969482422</v>
+        <v>949250</v>
       </c>
       <c r="H4" t="n">
-        <v>3646</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.052799265353193</v>
       </c>
       <c r="K4" t="n">
-        <v>243.0813896738345</v>
+        <v>6.042527814342083</v>
       </c>
       <c r="L4" t="n">
-        <v>241.5268692017665</v>
+        <v>5.966331752490056</v>
       </c>
       <c r="M4" t="n">
-        <v>240.8863173461361</v>
+        <v>5.789535068352976</v>
       </c>
       <c r="N4" t="n">
-        <v>240.122501348199</v>
-      </c>
-      <c r="O4" t="n">
-        <v>231.6051590096407</v>
+        <v>5.404900476736366</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
       </c>
-      <c r="Q4" t="n">
-        <v>0.9862961085451616</v>
-      </c>
-      <c r="R4" t="b">
-        <v>1</v>
-      </c>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0659.HK</t>
+          <t>1882.HK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7.800000190734863</v>
+        <v>21.63999938964844</v>
       </c>
       <c r="D5" t="n">
-        <v>7.829999923706055</v>
+        <v>21.8799991607666</v>
       </c>
       <c r="E5" t="n">
-        <v>7.730000019073486</v>
+        <v>21.60000038146973</v>
       </c>
       <c r="F5" t="n">
-        <v>7.789999961853027</v>
+        <v>21.71999931335449</v>
       </c>
       <c r="G5" t="n">
-        <v>7.789999961853027</v>
+        <v>606475</v>
       </c>
       <c r="H5" t="n">
-        <v>1586000</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>22.07767650232265</v>
       </c>
       <c r="K5" t="n">
-        <v>7.777675675624407</v>
+        <v>22.07684770310138</v>
       </c>
       <c r="L5" t="n">
-        <v>7.765878147031497</v>
+        <v>21.69665417213841</v>
       </c>
       <c r="M5" t="n">
-        <v>7.710661368913186</v>
+        <v>21.13692551423604</v>
       </c>
       <c r="N5" t="n">
-        <v>7.628049194688315</v>
-      </c>
-      <c r="O5" t="n">
-        <v>7.549675112961459</v>
+        <v>20.65271901192655</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0.04987549364536381</v>
-      </c>
-      <c r="R5" t="b">
-        <v>1</v>
-      </c>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0392.HK</t>
+          <t>1179.HK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34.2599983215332</v>
+        <v>30.3799991607666</v>
       </c>
       <c r="D6" t="n">
-        <v>34.40000152587891</v>
+        <v>30.3799991607666</v>
       </c>
       <c r="E6" t="n">
-        <v>33.61999893188477</v>
+        <v>29.8799991607666</v>
       </c>
       <c r="F6" t="n">
-        <v>34.29999923706055</v>
+        <v>30.26000022888184</v>
       </c>
       <c r="G6" t="n">
-        <v>34.29999923706055</v>
+        <v>389800</v>
       </c>
       <c r="H6" t="n">
-        <v>936690</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>29.49894023365938</v>
       </c>
       <c r="K6" t="n">
-        <v>34.13179712100615</v>
+        <v>28.82021672962079</v>
       </c>
       <c r="L6" t="n">
-        <v>33.84676180534166</v>
+        <v>27.86442606533117</v>
       </c>
       <c r="M6" t="n">
-        <v>33.37922627151834</v>
+        <v>27.37644614615637</v>
       </c>
       <c r="N6" t="n">
-        <v>32.51376856864051</v>
-      </c>
-      <c r="O6" t="n">
-        <v>30.43159720665286</v>
+        <v>27.18594168065462</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
       </c>
-      <c r="Q6" t="n">
-        <v>0.5393428507885479</v>
-      </c>
-      <c r="R6" t="b">
-        <v>1</v>
-      </c>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0027.HK</t>
+          <t>1038.HK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42.7599983215332</v>
+        <v>52.15000152587891</v>
       </c>
       <c r="D7" t="n">
-        <v>43</v>
+        <v>52.45000076293945</v>
       </c>
       <c r="E7" t="n">
-        <v>41.81999969482422</v>
+        <v>52.09999847412109</v>
       </c>
       <c r="F7" t="n">
-        <v>41.95999908447266</v>
+        <v>52.45000076293945</v>
       </c>
       <c r="G7" t="n">
-        <v>41.95999908447266</v>
+        <v>257973</v>
       </c>
       <c r="H7" t="n">
-        <v>9037176</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>52.59776345882093</v>
       </c>
       <c r="K7" t="n">
-        <v>41.5830279639336</v>
+        <v>52.5139217855127</v>
       </c>
       <c r="L7" t="n">
-        <v>41.17860602472027</v>
+        <v>52.34106331762703</v>
       </c>
       <c r="M7" t="n">
-        <v>39.8077247651487</v>
+        <v>51.74182906116997</v>
       </c>
       <c r="N7" t="n">
-        <v>37.66850286074393</v>
-      </c>
-      <c r="O7" t="n">
-        <v>35.98145816923177</v>
+        <v>50.02844946224807</v>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
       </c>
-      <c r="Q7" t="n">
-        <v>1.304841701063223</v>
-      </c>
-      <c r="R7" t="b">
-        <v>1</v>
-      </c>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>0945.HK</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>245.6000061035156</v>
+      </c>
+      <c r="D8" t="n">
+        <v>246</v>
+      </c>
+      <c r="E8" t="n">
+        <v>244.1999969482422</v>
+      </c>
+      <c r="F8" t="n">
+        <v>245.6000061035156</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10824</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>243.5363720665761</v>
+      </c>
+      <c r="K8" t="n">
+        <v>241.8349153771075</v>
+      </c>
+      <c r="L8" t="n">
+        <v>240.8922627237539</v>
+      </c>
+      <c r="M8" t="n">
+        <v>239.8547489333409</v>
+      </c>
+      <c r="N8" t="n">
+        <v>230.8759603725617</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0788.HK</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11.77000045776367</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.81999969482422</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11.55000019073486</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11.57999992370605</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6851386</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>11.58952538207683</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11.51397693759229</v>
+      </c>
+      <c r="L9" t="n">
+        <v>11.44391852362211</v>
+      </c>
+      <c r="M9" t="n">
+        <v>11.30551173382861</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10.74481855137244</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0659.HK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>7.760000228881836</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.800000190734863</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.730000019073486</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G10" t="n">
+        <v>726000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7.77264373460008</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7.764495081105533</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7.710433445909893</v>
+      </c>
+      <c r="M10" t="n">
+        <v>7.602812438831884</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.366407054731829</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0388.HK</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>447</v>
+      </c>
+      <c r="D11" t="n">
+        <v>447</v>
+      </c>
+      <c r="E11" t="n">
+        <v>435</v>
+      </c>
+      <c r="F11" t="n">
+        <v>435.6000061035156</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2946075</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>443.8453794668289</v>
+      </c>
+      <c r="K11" t="n">
+        <v>442.0816569550342</v>
+      </c>
+      <c r="L11" t="n">
+        <v>433.067434732066</v>
+      </c>
+      <c r="M11" t="n">
+        <v>412.4280684812792</v>
+      </c>
+      <c r="N11" t="n">
+        <v>363.417004763375</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0384.HK</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>7.800000190734863</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.849999904632568</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.690000057220459</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7.730000019073486</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3366253</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7.843256817715648</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7.841799734567413</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7.759441609839513</v>
+      </c>
+      <c r="M12" t="n">
+        <v>7.512527058272029</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7.086491788745836</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0300.HK</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>83</v>
+      </c>
+      <c r="D13" t="n">
+        <v>83.75</v>
+      </c>
+      <c r="E13" t="n">
+        <v>81.69999694824219</v>
+      </c>
+      <c r="F13" t="n">
+        <v>81.94999694824219</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1620828</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>84.18731384945237</v>
+      </c>
+      <c r="K13" t="n">
+        <v>83.94472053884228</v>
+      </c>
+      <c r="L13" t="n">
+        <v>81.97602910314886</v>
+      </c>
+      <c r="M13" t="n">
+        <v>79.41743700666444</v>
+      </c>
+      <c r="N13" t="n">
+        <v>78.29003711956841</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0270.HK</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>7.170000076293945</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7.190000057220459</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7.090000152587891</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7.130000114440918</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2631066</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7.252927606119738</v>
+      </c>
+      <c r="K14" t="n">
+        <v>7.235465343113367</v>
+      </c>
+      <c r="L14" t="n">
+        <v>7.090177939184072</v>
+      </c>
+      <c r="M14" t="n">
+        <v>6.817640779458365</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6.18237420097695</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0087.HK</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>11.80000019073486</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.80000019073486</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11.68000030517578</v>
+      </c>
+      <c r="F15" t="n">
+        <v>11.72999954223633</v>
+      </c>
+      <c r="G15" t="n">
+        <v>55140</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>11.85909684035432</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11.79663855905347</v>
+      </c>
+      <c r="L15" t="n">
+        <v>11.67539255210681</v>
+      </c>
+      <c r="M15" t="n">
+        <v>11.35602489843981</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10.63889264400939</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0027.HK</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>42.79999923706055</v>
+      </c>
+      <c r="D16" t="n">
+        <v>42.95999908447266</v>
+      </c>
+      <c r="E16" t="n">
+        <v>41.29999923706055</v>
+      </c>
+      <c r="F16" t="n">
+        <v>41.40000152587891</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5051009</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>41.5497504168221</v>
+      </c>
+      <c r="K16" t="n">
+        <v>41.19768207540857</v>
+      </c>
+      <c r="L16" t="n">
+        <v>39.85544275476698</v>
+      </c>
+      <c r="M16" t="n">
+        <v>37.65273713892125</v>
+      </c>
+      <c r="N16" t="n">
+        <v>35.67376142579997</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0019.HK</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>67.05000305175781</v>
+      </c>
+      <c r="D17" t="n">
+        <v>67.44999694824219</v>
+      </c>
+      <c r="E17" t="n">
+        <v>66.59999847412109</v>
+      </c>
+      <c r="F17" t="n">
+        <v>67.05000305175781</v>
+      </c>
+      <c r="G17" t="n">
+        <v>147389</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>67.62624126401731</v>
+      </c>
+      <c r="K17" t="n">
+        <v>67.41832831326397</v>
+      </c>
+      <c r="L17" t="n">
+        <v>67.35488330003757</v>
+      </c>
+      <c r="M17" t="n">
+        <v>66.93100529989032</v>
+      </c>
+      <c r="N17" t="n">
+        <v>65.00731303661601</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0012.HK</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>27.68000030517578</v>
+      </c>
+      <c r="D18" t="n">
+        <v>27.70000076293945</v>
+      </c>
+      <c r="E18" t="n">
+        <v>27.3799991607666</v>
+      </c>
+      <c r="F18" t="n">
+        <v>27.42000007629395</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1650897</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>27.66643724023774</v>
+      </c>
+      <c r="K18" t="n">
+        <v>27.40573852918624</v>
+      </c>
+      <c r="L18" t="n">
+        <v>26.91329260042954</v>
+      </c>
+      <c r="M18" t="n">
+        <v>25.81330045074503</v>
+      </c>
+      <c r="N18" t="n">
+        <v>23.82485176740112</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0011.HK</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>117</v>
+      </c>
+      <c r="D19" t="n">
+        <v>118.9000015258789</v>
+      </c>
+      <c r="E19" t="n">
+        <v>116.6999969482422</v>
+      </c>
+      <c r="F19" t="n">
+        <v>118.3000030517578</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1001461</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>117.7678054036153</v>
+      </c>
+      <c r="K19" t="n">
+        <v>116.5609905900119</v>
+      </c>
+      <c r="L19" t="n">
+        <v>115.4018863285952</v>
+      </c>
+      <c r="M19" t="n">
+        <v>112.7736668156798</v>
+      </c>
+      <c r="N19" t="n">
+        <v>105.2705168947564</v>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0006.HK</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>50.70000076293945</v>
+      </c>
+      <c r="D20" t="n">
+        <v>50.84999847412109</v>
+      </c>
+      <c r="E20" t="n">
+        <v>50.45000076293945</v>
+      </c>
+      <c r="F20" t="n">
+        <v>50.70000076293945</v>
+      </c>
+      <c r="G20" t="n">
+        <v>897426</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>50.87639787115543</v>
+      </c>
+      <c r="K20" t="n">
+        <v>50.71889779996817</v>
+      </c>
+      <c r="L20" t="n">
+        <v>50.48113145394425</v>
+      </c>
+      <c r="M20" t="n">
+        <v>49.98695148668731</v>
+      </c>
+      <c r="N20" t="n">
+        <v>48.34534402869406</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>0005.HK</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>106.8000030517578</v>
-      </c>
-      <c r="D8" t="n">
-        <v>107.3000030517578</v>
-      </c>
-      <c r="E8" t="n">
-        <v>106.4000015258789</v>
-      </c>
-      <c r="F8" t="n">
-        <v>107.1999969482422</v>
-      </c>
-      <c r="G8" t="n">
-        <v>107.1999969482422</v>
-      </c>
-      <c r="H8" t="n">
-        <v>10949522</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>105.7471954212772</v>
-      </c>
-      <c r="L8" t="n">
-        <v>103.7322121040831</v>
-      </c>
-      <c r="M8" t="n">
-        <v>100.847707628182</v>
-      </c>
-      <c r="N8" t="n">
-        <v>96.7750544580003</v>
-      </c>
-      <c r="O8" t="n">
-        <v>87.3922531650355</v>
-      </c>
-      <c r="P8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.990713654425628</v>
-      </c>
-      <c r="R8" t="b">
-        <v>1</v>
-      </c>
+      <c r="C21" t="n">
+        <v>107.9000015258789</v>
+      </c>
+      <c r="D21" t="n">
+        <v>108.0999984741211</v>
+      </c>
+      <c r="E21" t="n">
+        <v>107.5999984741211</v>
+      </c>
+      <c r="F21" t="n">
+        <v>108</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5825383</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>106.1565064267729</v>
+      </c>
+      <c r="K21" t="n">
+        <v>104.0962940105406</v>
+      </c>
+      <c r="L21" t="n">
+        <v>101.07364284208</v>
+      </c>
+      <c r="M21" t="n">
+        <v>96.68044665132307</v>
+      </c>
+      <c r="N21" t="n">
+        <v>86.034068690654</v>
+      </c>
+      <c r="O21" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0001.HK</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>50.25</v>
+      </c>
+      <c r="D22" t="n">
+        <v>50.45000076293945</v>
+      </c>
+      <c r="E22" t="n">
+        <v>49.7599983215332</v>
+      </c>
+      <c r="F22" t="n">
+        <v>50.25</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2525694</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>50.98254929970341</v>
+      </c>
+      <c r="K22" t="n">
+        <v>50.97084973063357</v>
+      </c>
+      <c r="L22" t="n">
+        <v>50.20019667012847</v>
+      </c>
+      <c r="M22" t="n">
+        <v>48.2689486468384</v>
+      </c>
+      <c r="N22" t="n">
+        <v>44.47808839990358</v>
+      </c>
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/T1_EMA_L.xlsx
+++ b/Data/T1_EMA_L.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,7 +526,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -534,19 +534,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>151.1000061035156</v>
+        <v>148.8999938964844</v>
       </c>
       <c r="D2" t="n">
-        <v>151.8000030517578</v>
+        <v>148.8999938964844</v>
       </c>
       <c r="E2" t="n">
-        <v>150.6000061035156</v>
+        <v>146.1999969482422</v>
       </c>
       <c r="F2" t="n">
-        <v>151.1000061035156</v>
+        <v>146.6999969482422</v>
       </c>
       <c r="G2" t="n">
-        <v>152626</v>
+        <v>941562</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -555,19 +555,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>149.5338580740149</v>
+        <v>149.1748093976427</v>
       </c>
       <c r="K2" t="n">
-        <v>147.7748305124124</v>
+        <v>148.0395851039312</v>
       </c>
       <c r="L2" t="n">
-        <v>143.6313060251208</v>
+        <v>144.2327062338996</v>
       </c>
       <c r="M2" t="n">
-        <v>135.6517904064945</v>
+        <v>136.4276745720078</v>
       </c>
       <c r="N2" t="n">
-        <v>117.1605185744171</v>
+        <v>117.915332591143</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
@@ -579,27 +579,27 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2688.HK</t>
+          <t>1128.HK</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>63.79999923706055</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="D3" t="n">
-        <v>64.30000305175781</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="E3" t="n">
-        <v>63.54999923706055</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="F3" t="n">
-        <v>63.75</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="G3" t="n">
-        <v>1442700</v>
+        <v>12265953</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -608,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>64.42874397166487</v>
+        <v>6.906301043628557</v>
       </c>
       <c r="K3" t="n">
-        <v>64.38809525426726</v>
+        <v>6.817970982303335</v>
       </c>
       <c r="L3" t="n">
-        <v>64.0664808213283</v>
+        <v>6.562682516890725</v>
       </c>
       <c r="M3" t="n">
-        <v>62.75252688416912</v>
+        <v>6.186324983289431</v>
       </c>
       <c r="N3" t="n">
-        <v>60.31991738327785</v>
+        <v>5.839095481493501</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
@@ -632,27 +632,27 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2638.HK</t>
+          <t>0945.HK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>239.6000061035156</v>
       </c>
       <c r="D4" t="n">
-        <v>6.019999980926514</v>
+        <v>239.6000061035156</v>
       </c>
       <c r="E4" t="n">
-        <v>5.989999771118164</v>
+        <v>238</v>
       </c>
       <c r="F4" t="n">
-        <v>6.010000228881836</v>
+        <v>238.1999969482422</v>
       </c>
       <c r="G4" t="n">
-        <v>949250</v>
+        <v>9708</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.052799265353193</v>
+        <v>241.9622271922743</v>
       </c>
       <c r="K4" t="n">
-        <v>6.042527814342083</v>
+        <v>241.4459942785033</v>
       </c>
       <c r="L4" t="n">
-        <v>5.966331752490056</v>
+        <v>240.8227284696716</v>
       </c>
       <c r="M4" t="n">
-        <v>5.789535068352976</v>
+        <v>239.8809910185282</v>
       </c>
       <c r="N4" t="n">
-        <v>5.404900476736366</v>
+        <v>231.0999708561399</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
@@ -685,27 +685,27 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1882.HK</t>
+          <t>0883.HK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21.63999938964844</v>
+        <v>19.10000038146973</v>
       </c>
       <c r="D5" t="n">
-        <v>21.8799991607666</v>
+        <v>19.20999908447266</v>
       </c>
       <c r="E5" t="n">
-        <v>21.60000038146973</v>
+        <v>19.01000022888184</v>
       </c>
       <c r="F5" t="n">
-        <v>21.71999931335449</v>
+        <v>19.1200008392334</v>
       </c>
       <c r="G5" t="n">
-        <v>606475</v>
+        <v>46087833</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -714,19 +714,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>22.07767650232265</v>
+        <v>19.12069969938074</v>
       </c>
       <c r="K5" t="n">
-        <v>22.07684770310138</v>
+        <v>19.02891668270193</v>
       </c>
       <c r="L5" t="n">
-        <v>21.69665417213841</v>
+        <v>18.62430710009282</v>
       </c>
       <c r="M5" t="n">
-        <v>21.13692551423604</v>
+        <v>18.09202001284812</v>
       </c>
       <c r="N5" t="n">
-        <v>20.65271901192655</v>
+        <v>17.29919313293625</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
@@ -738,27 +738,27 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1179.HK</t>
+          <t>0788.HK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30.3799991607666</v>
+        <v>11.5600004196167</v>
       </c>
       <c r="D6" t="n">
-        <v>30.3799991607666</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="E6" t="n">
-        <v>29.8799991607666</v>
+        <v>11.5</v>
       </c>
       <c r="F6" t="n">
-        <v>30.26000022888184</v>
+        <v>11.57999992370605</v>
       </c>
       <c r="G6" t="n">
-        <v>389800</v>
+        <v>16649509</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>29.49894023365938</v>
+        <v>11.5683617318911</v>
       </c>
       <c r="K6" t="n">
-        <v>28.82021672962079</v>
+        <v>11.52088054041011</v>
       </c>
       <c r="L6" t="n">
-        <v>27.86442606533117</v>
+        <v>11.45513495799912</v>
       </c>
       <c r="M6" t="n">
-        <v>27.37644614615637</v>
+        <v>11.31935449706757</v>
       </c>
       <c r="N6" t="n">
-        <v>27.18594168065462</v>
+        <v>10.76375361531543</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -791,27 +791,27 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1038.HK</t>
+          <t>0288.HK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>52.15000152587891</v>
+        <v>8.310000419616699</v>
       </c>
       <c r="D7" t="n">
-        <v>52.45000076293945</v>
+        <v>8.569999694824219</v>
       </c>
       <c r="E7" t="n">
-        <v>52.09999847412109</v>
+        <v>8.260000228881836</v>
       </c>
       <c r="F7" t="n">
-        <v>52.45000076293945</v>
+        <v>8.520000457763672</v>
       </c>
       <c r="G7" t="n">
-        <v>257973</v>
+        <v>22080349</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>52.59776345882093</v>
+        <v>8.535025071496815</v>
       </c>
       <c r="K7" t="n">
-        <v>52.5139217855127</v>
+        <v>8.47081429372607</v>
       </c>
       <c r="L7" t="n">
-        <v>52.34106331762703</v>
+        <v>8.187424846301431</v>
       </c>
       <c r="M7" t="n">
-        <v>51.74182906116997</v>
+        <v>7.71672349042301</v>
       </c>
       <c r="N7" t="n">
-        <v>50.02844946224807</v>
+        <v>6.764967253121383</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -844,27 +844,27 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0945.HK</t>
+          <t>0087.HK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>245.6000061035156</v>
+        <v>11.78999996185303</v>
       </c>
       <c r="D8" t="n">
-        <v>246</v>
+        <v>11.78999996185303</v>
       </c>
       <c r="E8" t="n">
-        <v>244.1999969482422</v>
+        <v>11.5600004196167</v>
       </c>
       <c r="F8" t="n">
-        <v>245.6000061035156</v>
+        <v>11.61999988555908</v>
       </c>
       <c r="G8" t="n">
-        <v>10824</v>
+        <v>732500</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>243.5363720665761</v>
+        <v>11.79673913857148</v>
       </c>
       <c r="K8" t="n">
-        <v>241.8349153771075</v>
+        <v>11.78100280803672</v>
       </c>
       <c r="L8" t="n">
-        <v>240.8922627237539</v>
+        <v>11.68225281012887</v>
       </c>
       <c r="M8" t="n">
-        <v>239.8547489333409</v>
+        <v>11.37827089048224</v>
       </c>
       <c r="N8" t="n">
-        <v>230.8759603725617</v>
+        <v>10.66498584190295</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -897,27 +897,27 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0788.HK</t>
+          <t>0027.HK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11.77000045776367</v>
+        <v>41.31999969482422</v>
       </c>
       <c r="D9" t="n">
-        <v>11.81999969482422</v>
+        <v>43.09999847412109</v>
       </c>
       <c r="E9" t="n">
-        <v>11.55000019073486</v>
+        <v>41.2400016784668</v>
       </c>
       <c r="F9" t="n">
-        <v>11.57999992370605</v>
+        <v>42.27999877929688</v>
       </c>
       <c r="G9" t="n">
-        <v>6851386</v>
+        <v>16125763</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>11.58952538207683</v>
+        <v>41.34391515378837</v>
       </c>
       <c r="K9" t="n">
-        <v>11.51397693759229</v>
+        <v>40.84388009745496</v>
       </c>
       <c r="L9" t="n">
-        <v>11.44391852362211</v>
+        <v>39.4936341187536</v>
       </c>
       <c r="M9" t="n">
-        <v>11.30551173382861</v>
+        <v>37.30377443692858</v>
       </c>
       <c r="N9" t="n">
-        <v>10.74481855137244</v>
+        <v>35.23499533733255</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -950,27 +950,27 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0659.HK</t>
+          <t>0012.HK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7.760000228881836</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>7.800000190734863</v>
+        <v>27.31999969482422</v>
       </c>
       <c r="E10" t="n">
-        <v>7.730000019073486</v>
+        <v>26.76000022888184</v>
       </c>
       <c r="F10" t="n">
-        <v>7.75</v>
+        <v>27.13999938964844</v>
       </c>
       <c r="G10" t="n">
-        <v>726000</v>
+        <v>4220050</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -979,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.77264373460008</v>
+        <v>27.43802201535532</v>
       </c>
       <c r="K10" t="n">
-        <v>7.764495081105533</v>
+        <v>27.34813413580569</v>
       </c>
       <c r="L10" t="n">
-        <v>7.710433445909893</v>
+        <v>26.9418504086527</v>
       </c>
       <c r="M10" t="n">
-        <v>7.602812438831884</v>
+        <v>25.89209272381726</v>
       </c>
       <c r="N10" t="n">
-        <v>7.366407054731829</v>
+        <v>23.90409710106413</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
@@ -1003,27 +1003,27 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0388.HK</t>
+          <t>0005.HK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>447</v>
+        <v>105.9000015258789</v>
       </c>
       <c r="D11" t="n">
-        <v>447</v>
+        <v>106.8000030517578</v>
       </c>
       <c r="E11" t="n">
-        <v>435</v>
+        <v>105.5</v>
       </c>
       <c r="F11" t="n">
-        <v>435.6000061035156</v>
+        <v>106.6999969482422</v>
       </c>
       <c r="G11" t="n">
-        <v>2946075</v>
+        <v>14573395</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>443.8453794668289</v>
+        <v>106.6178717998713</v>
       </c>
       <c r="K11" t="n">
-        <v>442.0816569550342</v>
+        <v>104.8119402184801</v>
       </c>
       <c r="L11" t="n">
-        <v>433.067434732066</v>
+        <v>101.596615201658</v>
       </c>
       <c r="M11" t="n">
-        <v>412.4280684812792</v>
+        <v>96.97479558148672</v>
       </c>
       <c r="N11" t="n">
-        <v>363.417004763375</v>
+        <v>86.11560137427573</v>
       </c>
       <c r="O11" t="b">
         <v>1</v>
@@ -1053,589 +1053,6 @@
         <v>1</v>
       </c>
       <c r="Q11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45923</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0384.HK</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>7.800000190734863</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7.849999904632568</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7.690000057220459</v>
-      </c>
-      <c r="F12" t="n">
-        <v>7.730000019073486</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3366253</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>7.843256817715648</v>
-      </c>
-      <c r="K12" t="n">
-        <v>7.841799734567413</v>
-      </c>
-      <c r="L12" t="n">
-        <v>7.759441609839513</v>
-      </c>
-      <c r="M12" t="n">
-        <v>7.512527058272029</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7.086491788745836</v>
-      </c>
-      <c r="O12" t="b">
-        <v>1</v>
-      </c>
-      <c r="P12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45923</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0300.HK</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>83</v>
-      </c>
-      <c r="D13" t="n">
-        <v>83.75</v>
-      </c>
-      <c r="E13" t="n">
-        <v>81.69999694824219</v>
-      </c>
-      <c r="F13" t="n">
-        <v>81.94999694824219</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1620828</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>84.18731384945237</v>
-      </c>
-      <c r="K13" t="n">
-        <v>83.94472053884228</v>
-      </c>
-      <c r="L13" t="n">
-        <v>81.97602910314886</v>
-      </c>
-      <c r="M13" t="n">
-        <v>79.41743700666444</v>
-      </c>
-      <c r="N13" t="n">
-        <v>78.29003711956841</v>
-      </c>
-      <c r="O13" t="b">
-        <v>1</v>
-      </c>
-      <c r="P13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45923</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0270.HK</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>7.170000076293945</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7.190000057220459</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7.090000152587891</v>
-      </c>
-      <c r="F14" t="n">
-        <v>7.130000114440918</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2631066</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>7.252927606119738</v>
-      </c>
-      <c r="K14" t="n">
-        <v>7.235465343113367</v>
-      </c>
-      <c r="L14" t="n">
-        <v>7.090177939184072</v>
-      </c>
-      <c r="M14" t="n">
-        <v>6.817640779458365</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6.18237420097695</v>
-      </c>
-      <c r="O14" t="b">
-        <v>1</v>
-      </c>
-      <c r="P14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45923</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0087.HK</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>11.80000019073486</v>
-      </c>
-      <c r="D15" t="n">
-        <v>11.80000019073486</v>
-      </c>
-      <c r="E15" t="n">
-        <v>11.68000030517578</v>
-      </c>
-      <c r="F15" t="n">
-        <v>11.72999954223633</v>
-      </c>
-      <c r="G15" t="n">
-        <v>55140</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>11.85909684035432</v>
-      </c>
-      <c r="K15" t="n">
-        <v>11.79663855905347</v>
-      </c>
-      <c r="L15" t="n">
-        <v>11.67539255210681</v>
-      </c>
-      <c r="M15" t="n">
-        <v>11.35602489843981</v>
-      </c>
-      <c r="N15" t="n">
-        <v>10.63889264400939</v>
-      </c>
-      <c r="O15" t="b">
-        <v>1</v>
-      </c>
-      <c r="P15" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45923</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0027.HK</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>42.79999923706055</v>
-      </c>
-      <c r="D16" t="n">
-        <v>42.95999908447266</v>
-      </c>
-      <c r="E16" t="n">
-        <v>41.29999923706055</v>
-      </c>
-      <c r="F16" t="n">
-        <v>41.40000152587891</v>
-      </c>
-      <c r="G16" t="n">
-        <v>5051009</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>41.5497504168221</v>
-      </c>
-      <c r="K16" t="n">
-        <v>41.19768207540857</v>
-      </c>
-      <c r="L16" t="n">
-        <v>39.85544275476698</v>
-      </c>
-      <c r="M16" t="n">
-        <v>37.65273713892125</v>
-      </c>
-      <c r="N16" t="n">
-        <v>35.67376142579997</v>
-      </c>
-      <c r="O16" t="b">
-        <v>1</v>
-      </c>
-      <c r="P16" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45923</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0019.HK</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>67.05000305175781</v>
-      </c>
-      <c r="D17" t="n">
-        <v>67.44999694824219</v>
-      </c>
-      <c r="E17" t="n">
-        <v>66.59999847412109</v>
-      </c>
-      <c r="F17" t="n">
-        <v>67.05000305175781</v>
-      </c>
-      <c r="G17" t="n">
-        <v>147389</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>67.62624126401731</v>
-      </c>
-      <c r="K17" t="n">
-        <v>67.41832831326397</v>
-      </c>
-      <c r="L17" t="n">
-        <v>67.35488330003757</v>
-      </c>
-      <c r="M17" t="n">
-        <v>66.93100529989032</v>
-      </c>
-      <c r="N17" t="n">
-        <v>65.00731303661601</v>
-      </c>
-      <c r="O17" t="b">
-        <v>1</v>
-      </c>
-      <c r="P17" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45923</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0012.HK</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>27.68000030517578</v>
-      </c>
-      <c r="D18" t="n">
-        <v>27.70000076293945</v>
-      </c>
-      <c r="E18" t="n">
-        <v>27.3799991607666</v>
-      </c>
-      <c r="F18" t="n">
-        <v>27.42000007629395</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1650897</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>27.66643724023774</v>
-      </c>
-      <c r="K18" t="n">
-        <v>27.40573852918624</v>
-      </c>
-      <c r="L18" t="n">
-        <v>26.91329260042954</v>
-      </c>
-      <c r="M18" t="n">
-        <v>25.81330045074503</v>
-      </c>
-      <c r="N18" t="n">
-        <v>23.82485176740112</v>
-      </c>
-      <c r="O18" t="b">
-        <v>1</v>
-      </c>
-      <c r="P18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45923</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0011.HK</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>117</v>
-      </c>
-      <c r="D19" t="n">
-        <v>118.9000015258789</v>
-      </c>
-      <c r="E19" t="n">
-        <v>116.6999969482422</v>
-      </c>
-      <c r="F19" t="n">
-        <v>118.3000030517578</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1001461</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>117.7678054036153</v>
-      </c>
-      <c r="K19" t="n">
-        <v>116.5609905900119</v>
-      </c>
-      <c r="L19" t="n">
-        <v>115.4018863285952</v>
-      </c>
-      <c r="M19" t="n">
-        <v>112.7736668156798</v>
-      </c>
-      <c r="N19" t="n">
-        <v>105.2705168947564</v>
-      </c>
-      <c r="O19" t="b">
-        <v>1</v>
-      </c>
-      <c r="P19" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45923</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0006.HK</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>50.70000076293945</v>
-      </c>
-      <c r="D20" t="n">
-        <v>50.84999847412109</v>
-      </c>
-      <c r="E20" t="n">
-        <v>50.45000076293945</v>
-      </c>
-      <c r="F20" t="n">
-        <v>50.70000076293945</v>
-      </c>
-      <c r="G20" t="n">
-        <v>897426</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>50.87639787115543</v>
-      </c>
-      <c r="K20" t="n">
-        <v>50.71889779996817</v>
-      </c>
-      <c r="L20" t="n">
-        <v>50.48113145394425</v>
-      </c>
-      <c r="M20" t="n">
-        <v>49.98695148668731</v>
-      </c>
-      <c r="N20" t="n">
-        <v>48.34534402869406</v>
-      </c>
-      <c r="O20" t="b">
-        <v>1</v>
-      </c>
-      <c r="P20" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45923</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0005.HK</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>107.9000015258789</v>
-      </c>
-      <c r="D21" t="n">
-        <v>108.0999984741211</v>
-      </c>
-      <c r="E21" t="n">
-        <v>107.5999984741211</v>
-      </c>
-      <c r="F21" t="n">
-        <v>108</v>
-      </c>
-      <c r="G21" t="n">
-        <v>5825383</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>106.1565064267729</v>
-      </c>
-      <c r="K21" t="n">
-        <v>104.0962940105406</v>
-      </c>
-      <c r="L21" t="n">
-        <v>101.07364284208</v>
-      </c>
-      <c r="M21" t="n">
-        <v>96.68044665132307</v>
-      </c>
-      <c r="N21" t="n">
-        <v>86.034068690654</v>
-      </c>
-      <c r="O21" t="b">
-        <v>1</v>
-      </c>
-      <c r="P21" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45923</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>0001.HK</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>50.25</v>
-      </c>
-      <c r="D22" t="n">
-        <v>50.45000076293945</v>
-      </c>
-      <c r="E22" t="n">
-        <v>49.7599983215332</v>
-      </c>
-      <c r="F22" t="n">
-        <v>50.25</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2525694</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>50.98254929970341</v>
-      </c>
-      <c r="K22" t="n">
-        <v>50.97084973063357</v>
-      </c>
-      <c r="L22" t="n">
-        <v>50.20019667012847</v>
-      </c>
-      <c r="M22" t="n">
-        <v>48.2689486468384</v>
-      </c>
-      <c r="N22" t="n">
-        <v>44.47808839990358</v>
-      </c>
-      <c r="O22" t="b">
-        <v>1</v>
-      </c>
-      <c r="P22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/T1_EMA_L.xlsx
+++ b/Data/T1_EMA_L.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,7 +526,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -534,19 +534,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>148.8999938964844</v>
+        <v>150.8999938964844</v>
       </c>
       <c r="D2" t="n">
-        <v>148.8999938964844</v>
+        <v>150.8999938964844</v>
       </c>
       <c r="E2" t="n">
-        <v>146.1999969482422</v>
+        <v>149.8000030517578</v>
       </c>
       <c r="F2" t="n">
-        <v>146.6999969482422</v>
+        <v>150.1999969482422</v>
       </c>
       <c r="G2" t="n">
-        <v>941562</v>
+        <v>14086</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -555,19 +555,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>149.1748093976427</v>
+        <v>149.3612071341153</v>
       </c>
       <c r="K2" t="n">
-        <v>148.0395851039312</v>
+        <v>148.2274470034301</v>
       </c>
       <c r="L2" t="n">
-        <v>144.2327062338996</v>
+        <v>144.4667176320319</v>
       </c>
       <c r="M2" t="n">
-        <v>136.4276745720078</v>
+        <v>136.7003938081661</v>
       </c>
       <c r="N2" t="n">
-        <v>117.915332591143</v>
+        <v>118.1725809073308</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
@@ -579,27 +579,27 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1128.HK</t>
+          <t>2076.HK</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6.900000095367432</v>
+        <v>90.19999694824219</v>
       </c>
       <c r="D3" t="n">
-        <v>7.119999885559082</v>
+        <v>91</v>
       </c>
       <c r="E3" t="n">
-        <v>6.900000095367432</v>
+        <v>90.19999694824219</v>
       </c>
       <c r="F3" t="n">
-        <v>6.949999809265137</v>
+        <v>91</v>
       </c>
       <c r="G3" t="n">
-        <v>12265953</v>
+        <v>20400</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -608,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.906301043628557</v>
+        <v>91.9644182066525</v>
       </c>
       <c r="K3" t="n">
-        <v>6.817970982303335</v>
+        <v>91.35348531563226</v>
       </c>
       <c r="L3" t="n">
-        <v>6.562682516890725</v>
+        <v>86.78861325110672</v>
       </c>
       <c r="M3" t="n">
-        <v>6.186324983289431</v>
+        <v>80.30852019641968</v>
       </c>
       <c r="N3" t="n">
-        <v>5.839095481493501</v>
+        <v>73.57861266609935</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
@@ -632,27 +632,27 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0945.HK</t>
+          <t>1585.HK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>239.6000061035156</v>
+        <v>13.86999988555908</v>
       </c>
       <c r="D4" t="n">
-        <v>239.6000061035156</v>
+        <v>13.93000030517578</v>
       </c>
       <c r="E4" t="n">
-        <v>238</v>
+        <v>13.77999973297119</v>
       </c>
       <c r="F4" t="n">
-        <v>238.1999969482422</v>
+        <v>13.82999992370605</v>
       </c>
       <c r="G4" t="n">
-        <v>9708</v>
+        <v>730000</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.9622271922743</v>
+        <v>13.75239821474862</v>
       </c>
       <c r="K4" t="n">
-        <v>241.4459942785033</v>
+        <v>13.62501820825619</v>
       </c>
       <c r="L4" t="n">
-        <v>240.8227284696716</v>
+        <v>13.33754086122865</v>
       </c>
       <c r="M4" t="n">
-        <v>239.8809910185282</v>
+        <v>13.15105361150255</v>
       </c>
       <c r="N4" t="n">
-        <v>231.0999708561399</v>
+        <v>12.91641481592721</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
@@ -685,27 +685,27 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0883.HK</t>
+          <t>0945.HK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19.10000038146973</v>
+        <v>240</v>
       </c>
       <c r="D5" t="n">
-        <v>19.20999908447266</v>
+        <v>241</v>
       </c>
       <c r="E5" t="n">
-        <v>19.01000022888184</v>
+        <v>239.8000030517578</v>
       </c>
       <c r="F5" t="n">
-        <v>19.1200008392334</v>
+        <v>240</v>
       </c>
       <c r="G5" t="n">
-        <v>46087833</v>
+        <v>2240</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -714,19 +714,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>19.12069969938074</v>
+        <v>241.6054586118607</v>
       </c>
       <c r="K5" t="n">
-        <v>19.02891668270193</v>
+        <v>241.3202556456892</v>
       </c>
       <c r="L5" t="n">
-        <v>18.62430710009282</v>
+        <v>240.7904646338811</v>
       </c>
       <c r="M5" t="n">
-        <v>18.09202001284812</v>
+        <v>239.8833478513666</v>
       </c>
       <c r="N5" t="n">
-        <v>17.29919313293625</v>
+        <v>231.1708877790414</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
@@ -738,27 +738,27 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0788.HK</t>
+          <t>0883.HK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11.5600004196167</v>
+        <v>19.20000076293945</v>
       </c>
       <c r="D6" t="n">
-        <v>11.67000007629395</v>
+        <v>19.20000076293945</v>
       </c>
       <c r="E6" t="n">
-        <v>11.5</v>
+        <v>18.95000076293945</v>
       </c>
       <c r="F6" t="n">
-        <v>11.57999992370605</v>
+        <v>18.98999977111816</v>
       </c>
       <c r="G6" t="n">
-        <v>16649509</v>
+        <v>21747696</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>11.5683617318911</v>
+        <v>19.09693607606027</v>
       </c>
       <c r="K6" t="n">
-        <v>11.52088054041011</v>
+        <v>19.02553260343377</v>
       </c>
       <c r="L6" t="n">
-        <v>11.45513495799912</v>
+        <v>18.63864798915234</v>
       </c>
       <c r="M6" t="n">
-        <v>11.31935449706757</v>
+        <v>18.10980179011103</v>
       </c>
       <c r="N6" t="n">
-        <v>10.76375361531543</v>
+        <v>17.31266569102517</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -791,27 +791,27 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0288.HK</t>
+          <t>0788.HK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8.310000419616699</v>
+        <v>11.46000003814697</v>
       </c>
       <c r="D7" t="n">
-        <v>8.569999694824219</v>
+        <v>11.47999954223633</v>
       </c>
       <c r="E7" t="n">
-        <v>8.260000228881836</v>
+        <v>11.39000034332275</v>
       </c>
       <c r="F7" t="n">
-        <v>8.520000457763672</v>
+        <v>11.43000030517578</v>
       </c>
       <c r="G7" t="n">
-        <v>22080349</v>
+        <v>2592120</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>8.535025071496815</v>
+        <v>11.54320510885195</v>
       </c>
       <c r="K7" t="n">
-        <v>8.47081429372607</v>
+        <v>11.51297791125929</v>
       </c>
       <c r="L7" t="n">
-        <v>8.187424846301431</v>
+        <v>11.45414928533988</v>
       </c>
       <c r="M7" t="n">
-        <v>7.71672349042301</v>
+        <v>11.32154550348114</v>
       </c>
       <c r="N7" t="n">
-        <v>6.764967253121383</v>
+        <v>10.76906236284101</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -844,27 +844,27 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0087.HK</t>
+          <t>0288.HK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11.78999996185303</v>
+        <v>8.560000419616699</v>
       </c>
       <c r="D8" t="n">
-        <v>11.78999996185303</v>
+        <v>8.560000419616699</v>
       </c>
       <c r="E8" t="n">
-        <v>11.5600004196167</v>
+        <v>8.5</v>
       </c>
       <c r="F8" t="n">
-        <v>11.61999988555908</v>
+        <v>8.5</v>
       </c>
       <c r="G8" t="n">
-        <v>732500</v>
+        <v>2420490</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.79673913857148</v>
+        <v>8.528656876679211</v>
       </c>
       <c r="K8" t="n">
-        <v>11.78100280803672</v>
+        <v>8.473352181228151</v>
       </c>
       <c r="L8" t="n">
-        <v>11.68225281012887</v>
+        <v>8.199682695465954</v>
       </c>
       <c r="M8" t="n">
-        <v>11.37827089048224</v>
+        <v>7.732233916284727</v>
       </c>
       <c r="N8" t="n">
-        <v>10.66498584190295</v>
+        <v>6.778792212409999</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -897,27 +897,27 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0027.HK</t>
+          <t>0087.HK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>41.31999969482422</v>
+        <v>11.69999980926514</v>
       </c>
       <c r="D9" t="n">
-        <v>43.09999847412109</v>
+        <v>11.75</v>
       </c>
       <c r="E9" t="n">
-        <v>41.2400016784668</v>
+        <v>11.69999980926514</v>
       </c>
       <c r="F9" t="n">
-        <v>42.27999877929688</v>
+        <v>11.73999977111816</v>
       </c>
       <c r="G9" t="n">
-        <v>16125763</v>
+        <v>12500</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>41.34391515378837</v>
+        <v>11.7864228899436</v>
       </c>
       <c r="K9" t="n">
-        <v>40.84388009745496</v>
+        <v>11.77743732656844</v>
       </c>
       <c r="L9" t="n">
-        <v>39.4936341187536</v>
+        <v>11.68451739709952</v>
       </c>
       <c r="M9" t="n">
-        <v>37.30377443692858</v>
+        <v>11.38543383766545</v>
       </c>
       <c r="N9" t="n">
-        <v>35.23499533733255</v>
+        <v>10.67355168326975</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -958,19 +958,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>27.86000061035156</v>
       </c>
       <c r="D10" t="n">
-        <v>27.31999969482422</v>
+        <v>27.8799991607666</v>
       </c>
       <c r="E10" t="n">
-        <v>26.76000022888184</v>
+        <v>27.68000030517578</v>
       </c>
       <c r="F10" t="n">
-        <v>27.13999938964844</v>
+        <v>27.71999931335449</v>
       </c>
       <c r="G10" t="n">
-        <v>4220050</v>
+        <v>535706</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -979,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>27.43802201535532</v>
+        <v>27.48929061499153</v>
       </c>
       <c r="K10" t="n">
-        <v>27.34813413580569</v>
+        <v>27.38047023820124</v>
       </c>
       <c r="L10" t="n">
-        <v>26.9418504086527</v>
+        <v>26.97236605197075</v>
       </c>
       <c r="M10" t="n">
-        <v>25.89209272381726</v>
+        <v>25.92828889373125</v>
       </c>
       <c r="N10" t="n">
-        <v>23.90409710106413</v>
+        <v>23.93450270104263</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
@@ -1000,59 +1000,6 @@
         <v>1</v>
       </c>
       <c r="Q10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45926</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0005.HK</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>105.9000015258789</v>
-      </c>
-      <c r="D11" t="n">
-        <v>106.8000030517578</v>
-      </c>
-      <c r="E11" t="n">
-        <v>105.5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>106.6999969482422</v>
-      </c>
-      <c r="G11" t="n">
-        <v>14573395</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>106.6178717998713</v>
-      </c>
-      <c r="K11" t="n">
-        <v>104.8119402184801</v>
-      </c>
-      <c r="L11" t="n">
-        <v>101.596615201658</v>
-      </c>
-      <c r="M11" t="n">
-        <v>96.97479558148672</v>
-      </c>
-      <c r="N11" t="n">
-        <v>86.11560137427573</v>
-      </c>
-      <c r="O11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
